--- a/biology/Zoologie/Criquet_de_Jago/Criquet_de_Jago.xlsx
+++ b/biology/Zoologie/Criquet_de_Jago/Criquet_de_Jago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dociostaurus jagoi
 Le Criquet de Jago (Dociostaurus jagoi) est une espèce d'orthoptères de la famille des Acrididés. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce criquet de taille moyenne (10 à 19 mm de long) est identifiable à ses carènes latérales qui forment un « X » sur son pronotum et les trois taches sombres de forme triangulaire sur la partie supérieure de ses fémurs.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 septembre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 septembre 2019) :
 sous-espèce Dociostaurus jagoi jagoi Soltani, 1978
 sous-espèce Dociostaurus jagoi occidentalis Soltani, 1978</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce proche, Dociostaurus genei, n'est différentiable du Criquet de Jago qu'avec une dissection des parties génitales du mâle[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce proche, Dociostaurus genei, n'est différentiable du Criquet de Jago qu'avec une dissection des parties génitales du mâle. 
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en France, majoritairement en région méditerranéenne, surtout dans les milieux arides et bien ensoleillés.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) A. A. Soltani, « Preliminary synonymy and description of new species in the genus Dociostaurus Fieber, 1853 (Orthoptera: Acridoidea; Acrididoe, Gomphocerinae with a key to the species in the genus) », Namahyi Anjumani Hasharahshinasani Iran, vol. Supplement 2,‎ 1978, p. 3-96 (ISSN 0259-9996 et 2783-3968)</t>
         </is>
